--- a/TaiLieuTrienKhaiModule3/TaiLieuTrienKhaiModule3/CaseStudy-Database/Checklist casestudy C1221G1 Module 3_DB.xlsx
+++ b/TaiLieuTrienKhaiModule3/TaiLieuTrienKhaiModule3/CaseStudy-Database/Checklist casestudy C1221G1 Module 3_DB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codegym\C1221G1_NguyenVanThong_Module3\TaiLieuTrienKhaiModule3\TaiLieuTrienKhaiModule3\CaseStudy-Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E0A1C5-7781-42EB-9F4C-CE5B0C291F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21732" windowHeight="9588" tabRatio="905" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
     <sheet name="Phạm Việt Khoa" sheetId="21" r:id="rId21"/>
     <sheet name="Nguyễn Nghĩa Trình" sheetId="22" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
@@ -3182,21 +3183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15" customHeight="1">
@@ -3299,7 +3300,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ca="1" si="1"/>
@@ -3475,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="14.25">
+    <row r="25" spans="2:4" ht="13.8">
       <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="14.25">
+    <row r="26" spans="2:4" ht="13.8">
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="14.25">
+    <row r="27" spans="2:4" ht="13.8">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="e">
@@ -3509,7 +3510,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="14.25">
+    <row r="28" spans="2:4" ht="13.8">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="e">
@@ -3517,7 +3518,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="14.25">
+    <row r="29" spans="2:4" ht="13.8">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9" t="e">
@@ -3525,27 +3526,27 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="14.25">
+    <row r="30" spans="2:4" ht="13.8">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="2:4" ht="14.25">
+    <row r="31" spans="2:4" ht="13.8">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="2:4" ht="14.25">
+    <row r="32" spans="2:4" ht="13.8">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="2:4" ht="14.25">
+    <row r="33" spans="2:4" ht="13.8">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="40" spans="2:4" ht="14.25">
+    <row r="40" spans="2:4" ht="13.8">
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
@@ -3571,7 +3572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3580,21 +3581,21 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -4443,7 +4444,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4457,7 +4458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4469,18 +4470,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -5329,7 +5330,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5343,7 +5344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5355,18 +5356,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -6215,7 +6216,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6229,7 +6230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6241,18 +6242,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -7101,7 +7102,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7115,7 +7116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7127,18 +7128,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -7987,7 +7988,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8001,7 +8002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8013,18 +8014,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -8873,7 +8874,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8887,7 +8888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8899,18 +8900,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -9759,7 +9760,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9773,30 +9774,30 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -9868,11 +9869,11 @@
         <v>44651</v>
       </c>
       <c r="E4" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="31" t="str">
         <f t="shared" ref="F4:F24" si="0">REPT("█",ROUND(E4*10,0))</f>
-        <v/>
+        <v>██████████</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="33"/>
@@ -9892,11 +9893,11 @@
         <v>44652</v>
       </c>
       <c r="E5" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>██████████</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -9917,11 +9918,11 @@
         <v>44652</v>
       </c>
       <c r="E6" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>██████████</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -10645,7 +10646,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10659,7 +10660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -10671,18 +10672,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -11531,7 +11532,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1100-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11545,7 +11546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -11557,18 +11558,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -12417,7 +12418,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1200-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12431,7 +12432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -12443,18 +12444,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -13303,7 +13304,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13317,7 +13318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -13329,18 +13330,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -14189,7 +14190,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1300-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14203,7 +14204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -14215,18 +14216,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -15075,7 +15076,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1400-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15089,7 +15090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -15101,18 +15102,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -15961,7 +15962,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15975,7 +15976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -15987,18 +15988,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -16847,7 +16848,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16861,7 +16862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -16873,18 +16874,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -17733,7 +17734,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17747,7 +17748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -17759,18 +17760,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -18619,7 +18620,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18633,7 +18634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -18645,18 +18646,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -19505,7 +19506,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19519,7 +19520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -19531,18 +19532,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -20391,7 +20392,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20405,7 +20406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -20417,18 +20418,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -21277,7 +21278,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21291,7 +21292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -21303,18 +21304,18 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.09765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="42.375" customWidth="1"/>
-    <col min="8" max="8" width="53.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.3984375" customWidth="1"/>
+    <col min="8" max="8" width="53.09765625" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="37.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" customHeight="1">
@@ -22163,7 +22164,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C4:C34">
+    <dataValidation type="list" allowBlank="1" sqref="C4:C34" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"HIGH,MEDIUM,LOW"</formula1>
     </dataValidation>
   </dataValidations>
